--- a/planilhas/Planilha de PROJETOS.xlsx
+++ b/planilhas/Planilha de PROJETOS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5620" yWindow="0" windowWidth="37700" windowHeight="21560" tabRatio="500"/>
+    <workbookView xWindow="5400" yWindow="0" windowWidth="37700" windowHeight="21560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,6 +84,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="F6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>TRANSFERENCIA
+DIA 25/11/2015</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>TRANSFERENCIA
+DIA 25/11/2015</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D8" authorId="0">
       <text>
         <r>
@@ -197,7 +227,7 @@
     <t>GO UPPER</t>
   </si>
   <si>
-    <t>FALTA 50%</t>
+    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -207,7 +237,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00;[Red]#,##0.00"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -279,6 +309,12 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF008000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -297,30 +333,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -334,10 +364,31 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -670,7 +721,7 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -683,51 +734,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="71" customHeight="1">
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
     </row>
     <row r="2" spans="1:12" ht="30" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="8"/>
+      <c r="H2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4" t="s">
+      <c r="I2" s="8"/>
+      <c r="J2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="6" t="s">
+      <c r="K2" s="8"/>
+      <c r="L2" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="25" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
@@ -752,589 +803,599 @@
       <c r="K3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="6"/>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:12" ht="32" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="5">
         <v>5640</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="5">
         <v>1128</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="5">
         <v>2256</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="5">
         <v>500</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="7"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12" ht="32" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="5">
         <v>3000</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5">
         <v>1500</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="5">
         <v>500</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="7"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" ht="32" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="5">
         <v>1850</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5">
         <v>600</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="7"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5">
+        <v>600</v>
+      </c>
+      <c r="G6" s="5">
+        <v>400</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" ht="32" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5">
         <v>500</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="7"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12" ht="32" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="5">
         <v>3040</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5">
         <v>1450</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="7"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12" ht="32" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="5">
         <v>2000</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5">
         <v>500</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="7"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5">
+        <v>500</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5">
+        <v>500</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12" ht="32" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="5">
         <v>2600</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5">
         <v>1300</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="7"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:12" ht="32" customHeight="1">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="5">
         <v>1800</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5">
         <v>1000</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5">
         <v>800</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="8" t="s">
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="32" customHeight="1">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="5">
         <v>1900</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5">
         <v>950</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="10" t="s">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5">
+        <v>950</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="32" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="7"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:12" ht="32" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="7"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:12" ht="32" customHeight="1">
       <c r="A15" s="2"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="7"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:12" ht="32" customHeight="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="7"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12" ht="32" customHeight="1">
       <c r="A17" s="2"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="7"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12" ht="32" customHeight="1">
       <c r="A18" s="2"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="7"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12" ht="32" customHeight="1">
       <c r="A19" s="2"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="7"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12" ht="32" customHeight="1">
       <c r="A20" s="2"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="7"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12" ht="32" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="7"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="3"/>
     </row>
     <row r="22" spans="1:12" ht="32" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="7"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="3"/>
     </row>
     <row r="23" spans="1:12" ht="32" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="7"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="3"/>
     </row>
     <row r="24" spans="1:12" ht="32" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="7"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="3"/>
     </row>
     <row r="25" spans="1:12" ht="32" customHeight="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="7"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="3"/>
     </row>
     <row r="26" spans="1:12" ht="32" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="7"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="3"/>
     </row>
     <row r="27" spans="1:12" ht="32" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="7"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="3"/>
     </row>
     <row r="28" spans="1:12" ht="32" customHeight="1">
       <c r="A28" s="2"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="7"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="3"/>
     </row>
     <row r="29" spans="1:12" ht="32" customHeight="1">
       <c r="A29" s="2"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="7"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="3"/>
     </row>
     <row r="30" spans="1:12" ht="32" customHeight="1">
       <c r="A30" s="2"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="7"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="3"/>
     </row>
     <row r="31" spans="1:12" ht="32" customHeight="1">
       <c r="A31" s="2"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="7"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="3"/>
     </row>
     <row r="32" spans="1:12" ht="32" customHeight="1">
       <c r="A32" s="2"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="7"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="3"/>
     </row>
     <row r="33" spans="1:12" ht="32" customHeight="1">
       <c r="A33" s="2"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="7"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="3"/>
     </row>
     <row r="34" spans="1:12" ht="32" customHeight="1">
       <c r="A34" s="2"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="7"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="3"/>
     </row>
     <row r="35" spans="1:12" ht="32" customHeight="1">
       <c r="A35" s="2"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="7"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="3"/>
     </row>
     <row r="36" spans="1:12" ht="32" customHeight="1">
       <c r="A36" s="2"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="7"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="3"/>
     </row>
     <row r="37" spans="1:12" ht="32" customHeight="1">
       <c r="A37" s="2"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="7"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="3"/>
     </row>
     <row r="38" spans="1:12" ht="32" customHeight="1">
       <c r="A38" s="2"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="7"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="3"/>
     </row>
     <row r="39" spans="1:12" ht="32" customHeight="1">
       <c r="A39" s="2"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="7"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="3"/>
     </row>
     <row r="40" spans="1:12" ht="32" customHeight="1">
       <c r="A40" s="2"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="7"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="9">
